--- a/grabDoll/config/doll_upgrade.xlsx
+++ b/grabDoll/config/doll_upgrade.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>lv</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>能力加成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -75,6 +71,18 @@
   </si>
   <si>
     <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_capacity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产力加成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -437,10 +445,10 @@
     <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="17.875" customWidth="1"/>
     <col min="4" max="4" width="18.875" customWidth="1"/>
-    <col min="5" max="5" width="27.625" customWidth="1"/>
+    <col min="5" max="6" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -454,10 +462,13 @@
         <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -471,10 +482,13 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>70001</v>
       </c>
@@ -490,8 +504,11 @@
       <c r="E3" s="1">
         <v>1</v>
       </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>70002</v>
       </c>
@@ -499,7 +516,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>3000</v>
@@ -507,8 +524,11 @@
       <c r="E4">
         <v>1.25</v>
       </c>
+      <c r="F4">
+        <v>1.25</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>70003</v>
       </c>
@@ -516,7 +536,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <v>8000</v>
@@ -524,8 +544,11 @@
       <c r="E5">
         <v>1.75</v>
       </c>
+      <c r="F5">
+        <v>1.75</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>70004</v>
       </c>
@@ -533,7 +556,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>15000</v>
@@ -541,8 +564,11 @@
       <c r="E6">
         <v>2.5</v>
       </c>
+      <c r="F6">
+        <v>2.5</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>70005</v>
       </c>
@@ -550,12 +576,15 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>30000</v>
       </c>
       <c r="E7">
+        <v>3.5</v>
+      </c>
+      <c r="F7">
         <v>3.5</v>
       </c>
     </row>

--- a/grabDoll/config/doll_upgrade.xlsx
+++ b/grabDoll/config/doll_upgrade.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>lv</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,17 +83,21 @@
   </si>
   <si>
     <t>生产力加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_hp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,7 +151,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -221,7 +225,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -256,7 +259,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -432,23 +434,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.375" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="17.875" customWidth="1"/>
     <col min="4" max="4" width="18.875" customWidth="1"/>
-    <col min="5" max="6" width="27.625" customWidth="1"/>
+    <col min="5" max="5" width="27.625" customWidth="1"/>
+    <col min="6" max="6" width="22.75" customWidth="1"/>
+    <col min="7" max="7" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -467,8 +471,11 @@
       <c r="F1" t="s">
         <v>16</v>
       </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -487,8 +494,11 @@
       <c r="F2" t="s">
         <v>15</v>
       </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>70001</v>
       </c>
@@ -499,7 +509,7 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -507,8 +517,11 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>70002</v>
       </c>
@@ -519,16 +532,19 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <v>3000</v>
+        <v>8</v>
       </c>
       <c r="E4">
-        <v>1.25</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F4">
-        <v>1.25</v>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G4">
+        <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>70003</v>
       </c>
@@ -539,16 +555,19 @@
         <v>11</v>
       </c>
       <c r="D5">
-        <v>8000</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="F5">
-        <v>1.75</v>
+        <v>1.25</v>
+      </c>
+      <c r="G5">
+        <v>1.25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>70004</v>
       </c>
@@ -559,16 +578,19 @@
         <v>12</v>
       </c>
       <c r="D6">
-        <v>15000</v>
+        <v>100</v>
       </c>
       <c r="E6">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F6">
-        <v>2.5</v>
+        <v>1.5</v>
+      </c>
+      <c r="G6">
+        <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>70005</v>
       </c>
@@ -579,13 +601,16 @@
         <v>13</v>
       </c>
       <c r="D7">
-        <v>30000</v>
+        <v>300</v>
       </c>
       <c r="E7">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="F7">
-        <v>3.5</v>
+        <v>2.25</v>
+      </c>
+      <c r="G7">
+        <v>2.25</v>
       </c>
     </row>
   </sheetData>
@@ -595,12 +620,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -608,12 +633,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
